--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N2">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O2">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P2">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q2">
-        <v>1.756722380834666</v>
+        <v>0.4911241440646667</v>
       </c>
       <c r="R2">
-        <v>15.810501427512</v>
+        <v>4.420117296582</v>
       </c>
       <c r="S2">
-        <v>0.007518579343321111</v>
+        <v>0.002281278591376815</v>
       </c>
       <c r="T2">
-        <v>0.00751857934332111</v>
+        <v>0.002281278591376816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q3">
-        <v>5.094736486429334</v>
+        <v>1.451491579107889</v>
       </c>
       <c r="R3">
-        <v>45.852628377864</v>
+        <v>13.063424211971</v>
       </c>
       <c r="S3">
-        <v>0.0218049140401639</v>
+        <v>0.006742198902252622</v>
       </c>
       <c r="T3">
-        <v>0.02180491404016389</v>
+        <v>0.006742198902252622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q4">
-        <v>18.44016182198667</v>
+        <v>5.253606280382778</v>
       </c>
       <c r="R4">
-        <v>165.96145639788</v>
+        <v>47.282456523445</v>
       </c>
       <c r="S4">
-        <v>0.07892187250236665</v>
+        <v>0.02440307543377861</v>
       </c>
       <c r="T4">
-        <v>0.07892187250236664</v>
+        <v>0.02440307543377861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N5">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O5">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P5">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q5">
-        <v>13.28714070412478</v>
+        <v>13.03847774544467</v>
       </c>
       <c r="R5">
-        <v>119.584266337123</v>
+        <v>117.346299709002</v>
       </c>
       <c r="S5">
-        <v>0.05686750662467695</v>
+        <v>0.06056391343063251</v>
       </c>
       <c r="T5">
-        <v>0.05686750662467695</v>
+        <v>0.06056391343063253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q6">
         <v>38.53453527099789</v>
@@ -818,10 +818,10 @@
         <v>346.810817438981</v>
       </c>
       <c r="S6">
-        <v>0.1649235895516669</v>
+        <v>0.1789934610317333</v>
       </c>
       <c r="T6">
-        <v>0.1649235895516668</v>
+        <v>0.1789934610317333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q7">
         <v>139.4739586679328</v>
@@ -880,10 +880,10 @@
         <v>1255.265628011395</v>
       </c>
       <c r="S7">
-        <v>0.5969332639080408</v>
+        <v>0.6478585095214439</v>
       </c>
       <c r="T7">
-        <v>0.5969332639080408</v>
+        <v>0.6478585095214439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N8">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O8">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P8">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q8">
-        <v>1.185213942570666</v>
+        <v>1.163033188096</v>
       </c>
       <c r="R8">
-        <v>10.666925483136</v>
+        <v>10.467298692864</v>
       </c>
       <c r="S8">
-        <v>0.005072585835557049</v>
+        <v>0.005402305598551028</v>
       </c>
       <c r="T8">
-        <v>0.005072585835557049</v>
+        <v>0.005402305598551029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q9">
-        <v>3.437283422421333</v>
+        <v>3.437283422421334</v>
       </c>
       <c r="R9">
         <v>30.935550801792</v>
       </c>
       <c r="S9">
-        <v>0.01471119649803641</v>
+        <v>0.01596623008424472</v>
       </c>
       <c r="T9">
-        <v>0.01471119649803641</v>
+        <v>0.01596623008424472</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q10">
         <v>12.44108752362667</v>
@@ -1066,10 +1066,10 @@
         <v>111.96978771264</v>
       </c>
       <c r="S10">
-        <v>0.05324649169617022</v>
+        <v>0.05778902740598657</v>
       </c>
       <c r="T10">
-        <v>0.0532464916961702</v>
+        <v>0.05778902740598657</v>
       </c>
     </row>
   </sheetData>
